--- a/pncs-doc/01-design/指标管理平台需求功能清单.xlsx
+++ b/pncs-doc/01-design/指标管理平台需求功能清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -402,6 +402,13 @@
   </si>
   <si>
     <t>数据补录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.98.245.252:8899/btm/</t>
+  </si>
+  <si>
+    <t>指标平台-admin-pacteraadmin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1004,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1542,6 +1549,16 @@
         <v>79</v>
       </c>
     </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
